--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T17:22:41-04:00</t>
+    <t>2024-07-15T11:25:06-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-15T11:25:06-04:00</t>
+    <t>2024-07-19T15:20:36-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3680" uniqueCount="632">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3677" uniqueCount="633">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-19T15:20:36-04:00</t>
+    <t>2024-07-29T12:02:43-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -114,7 +114,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Encounter</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/EncounterCL</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -295,10 +295,10 @@
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+    <t>Id temporal necesario para identificar el recurso</t>
+  </si>
+  <si>
+    <t>El Id que envíe desde la aplicación es temporal, el definitivo es creado por el servidor</t>
   </si>
   <si>
     <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
@@ -807,7 +807,7 @@
     <t>Id del registro de atención o encuentro del sistema clínico de origen</t>
   </si>
   <si>
-    <t>Identifier(s) by which this encounter is known.</t>
+    <t>Es el número de identificación del encuentro realizado</t>
   </si>
   <si>
     <t>Event.identifier</t>
@@ -989,7 +989,7 @@
     <t>Estado actual del encuentro</t>
   </si>
   <si>
-    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+    <t>Determina el estado del encuentro remoto conforme a los códigos definidos por el estándar</t>
   </si>
   <si>
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
@@ -998,10 +998,10 @@
     <t>finished</t>
   </si>
   <si>
-    <t>Current state of the encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+    <t>Códigos requeridos por FHIR</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status</t>
   </si>
   <si>
     <t>Event.status</t>
@@ -1061,6 +1061,15 @@
     <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +</t>
   </si>
   <si>
+    <t>planned | arrived | triaged | in-progress | onleave | finished | cancelled +.</t>
+  </si>
+  <si>
+    <t>Current state of the encounter.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/encounter-status|4.0.1</t>
+  </si>
+  <si>
     <t>Encounter.statusHistory.period</t>
   </si>
   <si>
@@ -1076,7 +1085,7 @@
     <t>Modalidad de Atención</t>
   </si>
   <si>
-    <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
+    <t>Clasificación del encuentro con el paciente</t>
   </si>
   <si>
     <t>https://interoperabilidad.minsal.cl/fhir/ig/tei/ValueSet/VSModalidadAtencionCodigo</t>
@@ -1136,10 +1145,10 @@
     <t>Encounter.type</t>
   </si>
   <si>
-    <t>Specific type of encounter</t>
-  </si>
-  <si>
-    <t>Specific type of encounter (e.g. e-mail consultation, surgical day-care, skilled nursing, rehabilitation).</t>
+    <t>Tipo específico de Encuentro</t>
+  </si>
+  <si>
+    <t>Específica el tipo de encuentro</t>
   </si>
   <si>
     <t>Since there are many ways to further classify encounters, this element is 0..*.</t>
@@ -1148,10 +1157,7 @@
     <t>example</t>
   </si>
   <si>
-    <t>The type of encounter.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposEncuentroCL</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1166,16 +1172,13 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t>Specific type of service</t>
-  </si>
-  <si>
-    <t>Broad categorization of the service that is to be provided (e.g. cardiology).</t>
-  </si>
-  <si>
-    <t>Broad categorization of the service that is to be provided.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>Tipo de servicio que se realiza en el Encuentro</t>
+  </si>
+  <si>
+    <t>Categorización del servicio que se va a prestar en el encuentro (por ejemplo, servicio de Ginecología)</t>
+  </si>
+  <si>
+    <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposServicio</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -1216,7 +1219,7 @@
     <t>Referencia al Paciente que se presentará a la Atención APS</t>
   </si>
   <si>
-    <t>The patient or group present at the encounter.</t>
+    <t>La referencia al paciente que está presente en el encuentro clínico sobre un paciente nacional.</t>
   </si>
   <si>
     <t>While the encounter is always about the patient, the patient might not actually be known in all contexts of use, and there may be a group of patients that could be anonymous (such as in a group therapy for Alcoholics Anonymous - where the recording of the encounter could be used for billing on the number of people/staff and not important to the context of the specific patients) or alternately in veterinary care a herd of sheep receiving treatment (where the animals are not individually tracked).</t>
@@ -1282,7 +1285,7 @@
     <t>Encounter.participant</t>
   </si>
   <si>
-    <t>List of participants involved in the encounter</t>
+    <t>Participantes involucrados en el encuentro sin considerar al paciente</t>
   </si>
   <si>
     <t>The list of people responsible for providing the service.</t>
@@ -1309,7 +1312,7 @@
     <t>Encounter.participant.type</t>
   </si>
   <si>
-    <t>Role of participant in encounter</t>
+    <t>Rol del participante en el encuentro</t>
   </si>
   <si>
     <t>Role of participant in encounter.</t>
@@ -1352,7 +1355,7 @@
 </t>
   </si>
   <si>
-    <t>Persons involved in the encounter other than the patient</t>
+    <t>Referencia al participante</t>
   </si>
   <si>
     <t>Persons involved in the encounter other than the patient.</t>
@@ -1377,10 +1380,10 @@
 </t>
   </si>
   <si>
-    <t>The appointment that scheduled this encounter</t>
-  </si>
-  <si>
-    <t>The appointment that scheduled this encounter.</t>
+    <t>Reserva de un evento de atención médica entre paciente(s), profesional(es), persona(s) relacionada(s) y/o dispositivo(s)</t>
+  </si>
+  <si>
+    <t>Cita o agendamiento médico, la cual es resultado de un encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=ENC, moodCode=APT]</t>
@@ -1395,7 +1398,7 @@
     <t>Fechas de comienzo y término del encuentro Atención APS. El formato queda consignado como YYYY-MM-DDTHH:MMZ</t>
   </si>
   <si>
-    <t>The start and end time of the encounter.</t>
+    <t>La hora de inicio y finalización del encuentro</t>
   </si>
   <si>
     <t>If not (yet) known, the end of the Period may be omitted.</t>
@@ -1479,10 +1482,7 @@
 </t>
   </si>
   <si>
-    <t>Quantity of time the encounter lasted (less time absent)</t>
-  </si>
-  <si>
-    <t>Quantity of time the encounter lasted. This excludes the time during leaves of absence.</t>
+    <t>Cantidad de tiempo que duró el encuentro (menos tiempo ausente)</t>
   </si>
   <si>
     <t>May differ from the time the Encounter.period lasted because of leave of absence.</t>
@@ -1501,10 +1501,7 @@
 Admission diagnosis</t>
   </si>
   <si>
-    <t>Coded reason the encounter takes place</t>
-  </si>
-  <si>
-    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+    <t>Razón codificada por la que tiene lugar el Encuentro</t>
   </si>
   <si>
     <t>For systems that need to know which was the primary diagnosis, these will be marked with the standard extension primaryDiagnosis (which is a sequence value rather than a flag, 1 = primary diagnosis).</t>
@@ -1538,13 +1535,16 @@
     <t>Reason the encounter takes place (reference)</t>
   </si>
   <si>
+    <t>Reason the encounter takes place, expressed as a code. For admissions, this can be used for a coded admission diagnosis.</t>
+  </si>
+  <si>
     <t>Encounter.diagnosis</t>
   </si>
   <si>
     <t>El o los diagnósticos por cual se crea la solicitud de interconsulta</t>
   </si>
   <si>
-    <t>The list of diagnosis relevant to this encounter.</t>
+    <t>Diagnóstico relevante para este encuentro</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=RSON]</t>
@@ -1931,7 +1931,11 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t>The organization (facility) responsible for this encounter</t>
+    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+</t>
+  </si>
+  <si>
+    <t>La organización (instalación) responsable de este encuentro</t>
   </si>
   <si>
     <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.</t>
@@ -2581,13 +2585,13 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>80</v>
@@ -6926,7 +6930,7 @@
         <v>337</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6956,10 +6960,10 @@
         <v>169</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>318</v>
+        <v>339</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>319</v>
+        <v>340</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>80</v>
@@ -7006,10 +7010,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7035,10 +7039,10 @@
         <v>299</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -7089,7 +7093,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>88</v>
@@ -7118,10 +7122,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7135,7 +7139,7 @@
         <v>88</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>80</v>
@@ -7147,10 +7151,10 @@
         <v>182</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7181,25 +7185,25 @@
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF43" t="s" s="2">
         <v>344</v>
-      </c>
-      <c r="AA43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE43" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF43" t="s" s="2">
-        <v>341</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>88</v>
@@ -7217,21 +7221,21 @@
         <v>80</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7257,10 +7261,10 @@
         <v>325</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7311,7 +7315,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -7340,10 +7344,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7452,10 +7456,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7566,10 +7570,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7682,10 +7686,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7711,10 +7715,10 @@
         <v>182</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7744,28 +7748,28 @@
         <v>276</v>
       </c>
       <c r="Y48" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF48" t="s" s="2">
         <v>357</v>
-      </c>
-      <c r="Z48" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AA48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE48" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF48" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>88</v>
@@ -7794,10 +7798,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7823,10 +7827,10 @@
         <v>299</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7877,7 +7881,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>88</v>
@@ -7906,10 +7910,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7923,7 +7927,7 @@
         <v>79</v>
       </c>
       <c r="H50" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>80</v>
@@ -7935,13 +7939,13 @@
         <v>166</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7967,13 +7971,11 @@
         <v>80</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Y50" t="s" s="2">
-        <v>367</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="Y50" s="2"/>
       <c r="Z50" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
@@ -7991,7 +7993,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -8006,24 +8008,24 @@
         <v>100</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8037,7 +8039,7 @@
         <v>88</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>80</v>
@@ -8049,10 +8051,10 @@
         <v>166</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -8079,13 +8081,11 @@
         <v>80</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="Y51" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="Y51" s="2"/>
       <c r="Z51" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>80</v>
@@ -8103,7 +8103,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -8118,7 +8118,7 @@
         <v>100</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>152</v>
@@ -8127,15 +8127,15 @@
         <v>80</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8161,10 +8161,10 @@
         <v>166</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8191,13 +8191,13 @@
         <v>80</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Z52" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AA52" t="s" s="2">
         <v>80</v>
@@ -8215,7 +8215,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -8233,25 +8233,25 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -8270,16 +8270,16 @@
         <v>89</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8329,7 +8329,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -8344,24 +8344,24 @@
         <v>100</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8384,13 +8384,13 @@
         <v>89</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -8441,7 +8441,7 @@
         <v>80</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>78</v>
@@ -8456,28 +8456,28 @@
         <v>100</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>152</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8496,13 +8496,13 @@
         <v>80</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8553,7 +8553,7 @@
         <v>80</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>78</v>
@@ -8568,10 +8568,10 @@
         <v>100</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>80</v>
@@ -8582,10 +8582,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8599,7 +8599,7 @@
         <v>79</v>
       </c>
       <c r="H56" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I56" t="s" s="2">
         <v>80</v>
@@ -8611,10 +8611,10 @@
         <v>325</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8665,7 +8665,7 @@
         <v>80</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>78</v>
@@ -8680,24 +8680,24 @@
         <v>100</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8806,10 +8806,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8920,10 +8920,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9036,10 +9036,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9053,7 +9053,7 @@
         <v>79</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>80</v>
@@ -9065,13 +9065,13 @@
         <v>166</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9097,13 +9097,11 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="Y60" t="s" s="2">
-        <v>420</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
@@ -9121,7 +9119,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -9136,24 +9134,24 @@
         <v>100</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9179,10 +9177,10 @@
         <v>299</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -9233,7 +9231,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -9251,21 +9249,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9273,13 +9271,13 @@
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>88</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I62" t="s" s="2">
         <v>80</v>
@@ -9288,13 +9286,13 @@
         <v>89</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9345,7 +9343,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -9360,24 +9358,24 @@
         <v>100</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9388,10 +9386,10 @@
         <v>78</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H63" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>80</v>
@@ -9400,13 +9398,13 @@
         <v>89</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -9457,7 +9455,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -9472,24 +9470,24 @@
         <v>100</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9515,13 +9513,13 @@
         <v>299</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -9571,7 +9569,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9586,24 +9584,24 @@
         <v>100</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9712,10 +9710,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9826,10 +9824,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9852,16 +9850,16 @@
         <v>89</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -9911,7 +9909,7 @@
         <v>80</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>78</v>
@@ -9920,7 +9918,7 @@
         <v>88</v>
       </c>
       <c r="AI67" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ67" t="s" s="2">
         <v>100</v>
@@ -9929,21 +9927,21 @@
         <v>80</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9966,23 +9964,23 @@
         <v>89</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="Q68" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R68" t="s" s="2">
         <v>80</v>
@@ -10027,7 +10025,7 @@
         <v>80</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>78</v>
@@ -10036,7 +10034,7 @@
         <v>88</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="AJ68" t="s" s="2">
         <v>100</v>
@@ -10045,21 +10043,21 @@
         <v>80</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN68" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10073,7 +10071,7 @@
         <v>88</v>
       </c>
       <c r="H69" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>80</v>
@@ -10082,10 +10080,10 @@
         <v>80</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="M69" t="s" s="2">
         <v>475</v>
@@ -10141,7 +10139,7 @@
         <v>80</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>78</v>
@@ -10156,7 +10154,7 @@
         <v>100</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>477</v>
@@ -10187,7 +10185,7 @@
         <v>79</v>
       </c>
       <c r="H70" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>80</v>
@@ -10202,10 +10200,10 @@
         <v>481</v>
       </c>
       <c r="M70" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10234,10 +10232,10 @@
         <v>112</v>
       </c>
       <c r="Y70" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="Z70" t="s" s="2">
         <v>484</v>
-      </c>
-      <c r="Z70" t="s" s="2">
-        <v>485</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>80</v>
@@ -10270,24 +10268,24 @@
         <v>100</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10310,16 +10308,16 @@
         <v>89</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>491</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>483</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10369,7 +10367,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -10384,16 +10382,16 @@
         <v>100</v>
       </c>
       <c r="AK71" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="AL71" t="s" s="2">
         <v>486</v>
       </c>
-      <c r="AL71" t="s" s="2">
+      <c r="AM71" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AM71" t="s" s="2">
+      <c r="AN71" t="s" s="2">
         <v>488</v>
-      </c>
-      <c r="AN71" t="s" s="2">
-        <v>489</v>
       </c>
     </row>
     <row r="72" hidden="true">
@@ -10415,7 +10413,7 @@
         <v>79</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>80</v>
@@ -10887,7 +10885,7 @@
         <v>504</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10958,7 +10956,7 @@
         <v>506</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>507</v>
@@ -12155,7 +12153,7 @@
         <v>80</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Y87" t="s" s="2">
         <v>551</v>
@@ -12271,7 +12269,7 @@
         <v>80</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Y88" t="s" s="2">
         <v>559</v>
@@ -12719,7 +12717,7 @@
         <v>80</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Y92" t="s" s="2">
         <v>585</v>
@@ -13329,7 +13327,7 @@
         <v>601</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AM97" t="s" s="2">
         <v>602</v>
@@ -13515,7 +13513,7 @@
         <v>80</v>
       </c>
       <c r="X99" t="s" s="2">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="Y99" t="s" s="2">
         <v>615</v>
@@ -13669,7 +13667,7 @@
         <v>80</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AM100" t="s" s="2">
         <v>80</v>
@@ -13697,7 +13695,7 @@
         <v>88</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>80</v>
@@ -13706,13 +13704,13 @@
         <v>80</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>306</v>
+        <v>621</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -13778,24 +13776,24 @@
         <v>100</v>
       </c>
       <c r="AK101" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="AM101" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AN101" t="s" s="2">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13818,16 +13816,16 @@
         <v>80</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" t="s" s="2">
@@ -13877,7 +13875,7 @@
         <v>80</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>78</v>
@@ -13892,10 +13890,10 @@
         <v>100</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="AM102" t="s" s="2">
         <v>80</v>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-29T12:02:43-04:00</t>
+    <t>2024-10-22T09:59:13-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9097,7 +9097,7 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>169</v>
+        <v>276</v>
       </c>
       <c r="Y60" s="2"/>
       <c r="Z60" t="s" s="2">

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-22T09:59:13-05:00</t>
+    <t>2024-10-28T18:15:52-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-10-28T18:15:52-03:00</t>
+    <t>2025-04-11T11:42:22-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-04-11T11:42:22-04:00</t>
+    <t>2025-06-19T10:06:59-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T10:06:59-04:00</t>
+    <t>2025-07-24T21:35:10-04:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
+++ b/fhir/ig/tei/0.2.1/StructureDefinition-EncounterIniciarLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-24T21:35:10-04:00</t>
+    <t>2025-12-05T09:23:56-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -876,7 +876,7 @@
     <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
   </si>
   <si>
     <t>Identifier.type</t>
@@ -961,7 +961,7 @@
     <t>Encounter.identifier.assigner</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -2297,17 +2297,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="72.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="45.21484375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.44140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.4609375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.1484375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.58203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.94140625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.7109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="65.30078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="41.03515625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.671875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.8125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.29296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.21484375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.55078125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.1171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.75390625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="106.0859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="95.10546875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2316,26 +2316,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.1875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.77734375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.40234375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="95.3984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="79.8671875" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.8828125" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.84375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0859375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="13.125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.59765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.53125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.80859375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.08984375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="85.70703125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="71.5078125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.44140625" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="40.34765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.51953125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.859375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.69140625" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="99.8984375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="33.05078125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="187.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="23.9609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="89.40625" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="29.45703125" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="165.8046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
